--- a/src/analysis_examples/circadb/results_lomb/cosinor_10519497_steap4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10519497_steap4_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.28078060460612225, 0.4122330263329647]</t>
+          <t>[0.28067512709176223, 0.41233850384732473]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.778817259103562e-10</v>
+        <v>3.889517596888936e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>3.778817259103562e-10</v>
+        <v>3.889517596888936e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.106947561625232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.3207897042119257, -0.8931054190385392]</t>
+          <t>[-1.3082107546480017, -0.9056843686024632]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.247822176812633e-10</v>
+        <v>1.754696388189814e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>5.247822176812633e-10</v>
+        <v>1.754696388189814e-10</v>
       </c>
       <c r="S2" t="n">
         <v>0.5132140767630781</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4769729094158529, 0.5494552441103032]</t>
+          <t>[0.4769724442787726, 0.5494557092473835]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.24584584584596</v>
       </c>
       <c r="X2" t="n">
-        <v>3.425625625625715</v>
+        <v>3.473873873873968</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.066066066066204</v>
+        <v>5.017817817817951</v>
       </c>
     </row>
   </sheetData>
